--- a/UTRawDataGOW_Final.xlsx
+++ b/UTRawDataGOW_Final.xlsx
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="44">
   <si>
     <t>Annotation File:</t>
   </si>
@@ -1229,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -3120,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -5424,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -7244,8 +7244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7472,7 +7472,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7536,7 +7538,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7872,15 +7876,15 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -8202,7 +8206,7 @@
       </c>
       <c r="K30" s="1">
         <f>SUM(K4:K29)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L30" s="1">
         <f>SUM(E4:E200)</f>
@@ -8231,7 +8235,7 @@
       </c>
       <c r="K31" s="1">
         <f>AVERAGEIF(K4:K29,"&gt;0")</f>
-        <v>4.75</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L31" s="1">
         <f>AVERAGE(E4:E200)</f>
@@ -8684,7 +8688,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="1">
@@ -9506,8 +9512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10138,15 +10144,15 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -10468,7 +10474,7 @@
       </c>
       <c r="K30" s="1">
         <f>SUM(K4:K29)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" s="1">
         <f>SUM(E4:E200)</f>
@@ -10497,7 +10503,7 @@
       </c>
       <c r="K31" s="1">
         <f>AVERAGEIF(K4:K29,"&gt;0")</f>
-        <v>5.75</v>
+        <v>5.4705882352941178</v>
       </c>
       <c r="L31" s="1">
         <f>AVERAGE(E4:E200)</f>
@@ -10806,7 +10812,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="2:6" ht="30">
       <c r="B49" s="1">
@@ -11682,7 +11690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
